--- a/makerclan/projects/ELRMS690041/ELRMS690041.xlsx
+++ b/makerclan/projects/ELRMS690041/ELRMS690041.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>project_id</t>
   </si>
@@ -53,10 +53,13 @@
     <t>Raspberry Pi, Php, Mysql, Html, CSS</t>
   </si>
   <si>
-    <t>2017-12-20</t>
-  </si>
-  <si>
     <t>3650|7200</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>2018-01-20</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +429,7 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +451,11 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -460,16 +466,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/makerclan/projects/ELRMS690041/ELRMS690041.xlsx
+++ b/makerclan/projects/ELRMS690041/ELRMS690041.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
